--- a/LF/PreTAS/Senegal/2024/sn_lf_pretas_2407_1_sit_part.xlsx
+++ b/LF/PreTAS/Senegal/2024/sn_lf_pretas_2407_1_sit_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F9C111-020F-4271-AD02-BC8E8AA01F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1BF77D-DEC1-4EF7-A25B-ECFE6E912343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="158">
   <si>
     <t>type</t>
   </si>
@@ -354,15 +354,6 @@
     <t>17. Classe des élèves</t>
   </si>
   <si>
-    <t>18. Dépistage de la filariose lymphatique</t>
-  </si>
-  <si>
-    <t>19. Dépistage pour l'onchocercose</t>
-  </si>
-  <si>
-    <t>20. Notes complémentaires</t>
-  </si>
-  <si>
     <t>CI</t>
   </si>
   <si>
@@ -381,12 +372,6 @@
     <t>p_class</t>
   </si>
   <si>
-    <t>p_depist_lf</t>
-  </si>
-  <si>
-    <t>p_depist_oncho</t>
-  </si>
-  <si>
     <t>Combien d'enfant allez vous enregistrer?</t>
   </si>
   <si>
@@ -459,38 +444,6 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>if(${c_eu_name} = 'SARAYA', . = 'Oui', . = 'Non')</t>
-  </si>
-  <si>
-    <t>Cette réponse est invalide pour le site ${c_eu_name}</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Oui' and ${c_eu_name} = 'SARAYA'</t>
-  </si>
-  <si>
-    <t>${p_IDMethod} = 'Scanner' and ${p_consent} = 'Oui' and ${c_eu_name} = 'SARAYA'</t>
-  </si>
-  <si>
-    <t>(${p_IDMethod} = 'Manuel'  or ${c_eu_name} != 'SARAYA') and ${p_consent} = 'Oui'</t>
-  </si>
-  <si>
-    <t>if(${p_IDMethod} = 'Scanner', concat(${p_Barcode_id}), 
-    if(${c_eu_name} = 'SARAYA', ${p_manual_code_id},  concat(${c_recorder}, '_', ${c_cluster_id}, '_', ${p_manual_code_id}))   
-)</t>
-  </si>
-  <si>
-    <t>if(${c_eu_name} = 'SARAYA', regex(., '^(SENITAS)\d{4}$'), true())</t>
-  </si>
-  <si>
-    <t>Le format du QR Code est incorrect. Exemple SENITAS1234</t>
-  </si>
-  <si>
-    <t>sn_lf_pretas_2406_1_sit_part</t>
-  </si>
-  <si>
-    <t>(2024 Juillet) 1. Pre-TAS - Formulaire Site &amp; Elève V4</t>
-  </si>
-  <si>
     <t>Régions</t>
   </si>
   <si>
@@ -540,6 +493,24 @@
   </si>
   <si>
     <t>sn_lf_p_2407</t>
+  </si>
+  <si>
+    <t>sn_lf_pretas_2407_1_sit_part</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 1. Pre-TAS - Formulaire Site &amp; Elève</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${p_IDMethod} = 'Scanner' and ${p_consent} = 'Oui' </t>
+  </si>
+  <si>
+    <t>(${p_IDMethod} = 'Manuel' ) and ${p_consent} = 'Oui'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(${p_IDMethod} = 'Scanner', concat(${p_Barcode_id}), concat(${c_recorder}, '_', ${c_cluster_id}, '_', ${p_manual_code_id}))   </t>
+  </si>
+  <si>
+    <t>18. Notes complémentaires</t>
   </si>
 </sst>
 </file>
@@ -565,13 +536,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -795,7 +766,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -894,9 +865,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,13 +1176,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1276,10 +1244,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="63">
@@ -1313,7 +1281,7 @@
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>19</v>
@@ -1356,7 +1324,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1">
@@ -1563,10 +1531,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>75</v>
@@ -1577,10 +1545,10 @@
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1">
       <c r="A14" s="21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -1589,7 +1557,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="5"/>
       <c r="I14" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -1597,13 +1565,13 @@
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1">
       <c r="A15" s="24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="24"/>
@@ -1617,15 +1585,15 @@
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="O15" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1">
       <c r="A16" s="21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -1634,7 +1602,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -1642,10 +1610,10 @@
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="31.5">
       <c r="A17" s="21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -1654,7 +1622,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="21"/>
       <c r="I17" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -1704,7 +1672,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="15" t="s">
@@ -1729,7 +1697,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="15" t="s">
@@ -1739,26 +1707,22 @@
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
     </row>
-    <row r="22" spans="1:14" s="5" customFormat="1" ht="47.25">
+    <row r="22" spans="1:14" s="5" customFormat="1" ht="31.5">
       <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>147</v>
-      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="15" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="15" t="s">
@@ -1768,12 +1732,12 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="1:14" s="5" customFormat="1" ht="47.25">
+    <row r="23" spans="1:14" s="5" customFormat="1" ht="31.5">
       <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>100</v>
@@ -1781,13 +1745,13 @@
       <c r="D23" s="17"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="15" t="s">
@@ -1797,7 +1761,7 @@
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="1:14" s="5" customFormat="1" ht="94.5">
+    <row r="24" spans="1:14" s="5" customFormat="1" ht="47.25">
       <c r="A24" s="16" t="s">
         <v>31</v>
       </c>
@@ -1805,21 +1769,21 @@
         <v>85</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>76</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>18</v>
@@ -1916,10 +1880,10 @@
     </row>
     <row r="28" spans="1:14" s="5" customFormat="1">
       <c r="A28" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>104</v>
@@ -1939,144 +1903,128 @@
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1">
-      <c r="A29" s="8" t="s">
-        <v>33</v>
+    <row r="29" spans="1:14" s="5" customFormat="1" ht="31.5">
+      <c r="A29" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I29" s="16"/>
-      <c r="J29" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="J29" s="15"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" ht="31.5">
-      <c r="A30" s="8" t="s">
-        <v>33</v>
+    <row r="30" spans="1:14" s="5" customFormat="1">
+      <c r="A30" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" ht="31.5">
-      <c r="A31" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>45</v>
-      </c>
+    <row r="31" spans="1:14" s="5" customFormat="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
-        <v>78</v>
-      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="15"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="1:14" s="5" customFormat="1">
-      <c r="A32" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+    <row r="32" spans="1:14" s="1" customFormat="1">
+      <c r="A32" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" spans="1:13" s="5" customFormat="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1">
-      <c r="A34" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" s="5" customFormat="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" s="5" customFormat="1">
-      <c r="B35" s="12"/>
+      <c r="A35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="J35" s="12"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" s="5" customFormat="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="8"/>
@@ -2088,44 +2036,6 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" s="5" customFormat="1">
-      <c r="A37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" s="5" customFormat="1">
-      <c r="A38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2164,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>52</v>
@@ -2250,39 +2160,39 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2296,13 +2206,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D13" s="16"/>
     </row>
@@ -2314,13 +2224,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2328,13 +2238,13 @@
         <v>52</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2345,13 +2255,13 @@
         <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2359,13 +2269,13 @@
         <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2379,7 +2289,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2393,7 +2303,7 @@
         <v>102</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2321,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2434,10 +2344,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>61</v>
@@ -2460,82 +2370,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="40"/>
-    <col min="8" max="8" width="12.375" style="40" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>150</v>
+      <c r="H1" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="40">
+      <c r="A2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2">
         <v>101</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>155</v>
+      <c r="H2" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="40">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3">
         <v>102</v>
       </c>
-      <c r="H3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LF/PreTAS/Senegal/2024/sn_lf_pretas_2407_1_sit_part.xlsx
+++ b/LF/PreTAS/Senegal/2024/sn_lf_pretas_2407_1_sit_part.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1BF77D-DEC1-4EF7-A25B-ECFE6E912343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D788824E-E5C1-4C68-A517-04B04FCED1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -237,12 +237,6 @@
     <t>p_age_yrs</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 9</t>
-  </si>
-  <si>
-    <t>L'age doit être compris entre 5 et 9 ans</t>
-  </si>
-  <si>
     <t>p_how_long_lived</t>
   </si>
   <si>
@@ -309,18 +303,6 @@
     <t>3. Sélectionner la commune</t>
   </si>
   <si>
-    <t>4. Entrer le nom de l'école</t>
-  </si>
-  <si>
-    <t>5. Entrer le code de l'école</t>
-  </si>
-  <si>
-    <t>6. Nom du chef d'établissement</t>
-  </si>
-  <si>
-    <t>7. L'école (à travers le chef de l'établissement) consent-elle à participer à cette enquête ?</t>
-  </si>
-  <si>
     <t>8. Population du village ou nombre d'élève de l'école</t>
   </si>
   <si>
@@ -351,30 +333,6 @@
     <t>16. Depuis combien d'années le participant habite-t-il dans la communauté?</t>
   </si>
   <si>
-    <t>17. Classe des élèves</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>CE1</t>
-  </si>
-  <si>
-    <t>classe</t>
-  </si>
-  <si>
-    <t>select_one classe</t>
-  </si>
-  <si>
-    <t>p_class</t>
-  </si>
-  <si>
-    <t>Combien d'enfant allez vous enregistrer?</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -492,15 +450,6 @@
     <t>CodeID</t>
   </si>
   <si>
-    <t>sn_lf_p_2407</t>
-  </si>
-  <si>
-    <t>sn_lf_pretas_2407_1_sit_part</t>
-  </si>
-  <si>
-    <t>(2024 Juillet) 1. Pre-TAS - Formulaire Site &amp; Elève</t>
-  </si>
-  <si>
     <t xml:space="preserve">${p_IDMethod} = 'Scanner' and ${p_consent} = 'Oui' </t>
   </si>
   <si>
@@ -511,13 +460,43 @@
   </si>
   <si>
     <t>18. Notes complémentaires</t>
+  </si>
+  <si>
+    <t>Combien de personne de plus de 5 ans allez vous enregistrer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. &gt; 5 </t>
+  </si>
+  <si>
+    <t>L'age doit être plus de 5 ans</t>
+  </si>
+  <si>
+    <t>7. Le chef du village consent-il à participer à cette enquête ?</t>
+  </si>
+  <si>
+    <t>6. Nom du chef du village</t>
+  </si>
+  <si>
+    <t>4. Nom du village</t>
+  </si>
+  <si>
+    <t>5. Code du village</t>
+  </si>
+  <si>
+    <t>sn_lf_p_2407_2</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 1. Pre-TAS - Formulaire Site &amp; Elève V2</t>
+  </si>
+  <si>
+    <t>sn_lf_pretas_2407_1_sit_part_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -576,19 +555,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -611,6 +577,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -745,32 +719,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -813,40 +784,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,8 +800,38 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1176,866 +1144,840 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="39.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="40.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="35.375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="36.625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="22" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="37.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="40.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="35.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="36.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="37.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="37.5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="63">
-      <c r="A2" s="8" t="s">
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="63">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
+      <c r="A3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1">
-      <c r="A3" s="8" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="31.5">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="31.5">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="47.25">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="31.5">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="31.5">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="H12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="5" customFormat="1">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="A14" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="I14" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="A15" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="O15" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
+      <c r="A16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="31.5">
+      <c r="A17" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1">
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1">
+      <c r="A19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="31.5">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1">
+      <c r="A20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1">
+      <c r="A21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="31.5">
+      <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="B22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="31.5">
-      <c r="A8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9" t="s">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="31.5">
+      <c r="A23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" s="5" customFormat="1">
-      <c r="A9" s="8" t="s">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="47.25">
+      <c r="A24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1">
+      <c r="A25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" ht="47.25">
-      <c r="A10" s="8" t="s">
+      <c r="B26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="31.5">
+      <c r="A27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" ht="31.5">
-      <c r="A11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9" t="s">
+      <c r="B27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="31.5">
-      <c r="A12" s="5" t="s">
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="31.5">
+      <c r="A28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="H12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" customFormat="1">
-      <c r="A13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1">
+      <c r="A29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1">
+      <c r="A31" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1">
-      <c r="A14" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1">
-      <c r="A15" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="O15" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1">
-      <c r="A16" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="31.5">
-      <c r="A17" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:14" s="5" customFormat="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" s="5" customFormat="1">
-      <c r="A19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" s="5" customFormat="1">
-      <c r="A20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" s="5" customFormat="1">
-      <c r="A21" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:14" s="5" customFormat="1" ht="31.5">
-      <c r="A22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" s="5" customFormat="1" ht="31.5">
-      <c r="A23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:14" s="5" customFormat="1" ht="47.25">
-      <c r="A24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="5" customFormat="1">
-      <c r="A25" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-    </row>
-    <row r="27" spans="1:14" s="5" customFormat="1" ht="31.5">
-      <c r="A27" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="1:14" s="5" customFormat="1">
-      <c r="A28" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" ht="31.5">
-      <c r="A29" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-    </row>
-    <row r="30" spans="1:14" s="5" customFormat="1">
-      <c r="A30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="1:14" s="5" customFormat="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="1:14" s="1" customFormat="1">
-      <c r="A32" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="1:13" s="5" customFormat="1">
-      <c r="B33" s="12"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:13" s="5" customFormat="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" s="5" customFormat="1">
-      <c r="A35" s="8" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1">
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1">
+      <c r="A34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" s="5" customFormat="1">
-      <c r="A36" s="8" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1">
+      <c r="A35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2045,270 +1987,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD832"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="39.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.75" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="18.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C5" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="B6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="C7" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="C8" s="36"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>108</v>
+      <c r="A9" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="16"/>
+      <c r="A13" s="15"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>140</v>
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="16"/>
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3">
+        <v>101</v>
+      </c>
+      <c r="C17" s="3">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="4">
-        <v>101</v>
-      </c>
-      <c r="C21" s="4">
-        <v>101</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="B18" s="3">
         <v>102</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C18" s="3">
         <v>102</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>148</v>
+      <c r="F18" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C13">
     <cfRule type="duplicateValues" dxfId="0" priority="242"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2320,36 +2216,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="44.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2378,67 +2274,67 @@
     <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F2">
         <v>101</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>140</v>
+      <c r="H2" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>148</v>
+        <v>127</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>148</v>
+        <v>129</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F3">
         <v>102</v>

--- a/LF/PreTAS/Senegal/2024/sn_lf_pretas_2407_1_sit_part.xlsx
+++ b/LF/PreTAS/Senegal/2024/sn_lf_pretas_2407_1_sit_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D788824E-E5C1-4C68-A517-04B04FCED1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F123C40-3D04-4F30-9FED-8D042DB96CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>c_cluster_id</t>
   </si>
   <si>
-    <t>Le code a trois chiffre associé à chaque école</t>
-  </si>
-  <si>
     <t>. &gt; 99 and .&lt; 1000</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>. &lt;= ${c_population}</t>
   </si>
   <si>
-    <t>Le nombre de participants admissibles doit toujours être inférieur au nombre d’élèves de l’école</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -303,12 +297,6 @@
     <t>3. Sélectionner la commune</t>
   </si>
   <si>
-    <t>8. Population du village ou nombre d'élève de l'école</t>
-  </si>
-  <si>
-    <t>9. Selon les groupes d'âge ciblés, combien de participants admissibles sont présents dans cette école ou communauté ?</t>
-  </si>
-  <si>
     <t>10. Prener vos coordonnées GPS :</t>
   </si>
   <si>
@@ -483,13 +471,25 @@
     <t>5. Code du village</t>
   </si>
   <si>
-    <t>sn_lf_p_2407_2</t>
-  </si>
-  <si>
-    <t>(2024 Juillet) 1. Pre-TAS - Formulaire Site &amp; Elève V2</t>
-  </si>
-  <si>
-    <t>sn_lf_pretas_2407_1_sit_part_v2</t>
+    <t>sn_lf_pretas_2407_1_sit_part_v3</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 1. Pre-TAS - Formulaire Site &amp; Participant V3</t>
+  </si>
+  <si>
+    <t>sn_lf_p_2407_3</t>
+  </si>
+  <si>
+    <t>Le code a trois chiffre associé à chaque village</t>
+  </si>
+  <si>
+    <t>Le nombre de participants admissibles doit toujours être inférieur au nombre de la population du village</t>
+  </si>
+  <si>
+    <t>8. Population du village</t>
+  </si>
+  <si>
+    <t>9. Selon les groupes d'âge ciblés, combien de participants admissibles sont présents dans ce village ?</t>
   </si>
 </sst>
 </file>
@@ -1146,11 +1146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1212,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="63">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
@@ -1278,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
@@ -1292,7 +1292,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1">
@@ -1303,7 +1303,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8"/>
@@ -1328,17 +1328,17 @@
         <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1348,18 +1348,18 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
@@ -1376,13 +1376,13 @@
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="31.5">
       <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
@@ -1402,21 +1402,21 @@
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1427,25 +1427,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1453,22 +1453,22 @@
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="31.5">
       <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
@@ -1480,17 +1480,17 @@
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" ht="31.5">
       <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="9"/>
       <c r="H12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12" s="11"/>
     </row>
@@ -1499,13 +1499,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>18</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1">
       <c r="A14" s="28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -1524,7 +1524,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="I14" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
@@ -1532,35 +1532,35 @@
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1">
       <c r="A15" s="31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
       <c r="O15" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="4" customFormat="1">
       <c r="A16" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>98</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>102</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -1569,7 +1569,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
@@ -1577,10 +1577,10 @@
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="31.5">
       <c r="A17" s="28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -1589,7 +1589,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="28"/>
       <c r="I17" s="35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="14"/>
@@ -1626,20 +1626,20 @@
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="14" t="s">
@@ -1651,20 +1651,20 @@
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="14" t="s">
@@ -1676,20 +1676,20 @@
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" ht="31.5">
       <c r="A22" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="14" t="s">
@@ -1701,24 +1701,24 @@
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" ht="31.5">
       <c r="A23" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="14" t="s">
@@ -1730,27 +1730,27 @@
     </row>
     <row r="24" spans="1:14" s="4" customFormat="1" ht="47.25">
       <c r="A24" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>18</v>
@@ -1764,20 +1764,20 @@
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14" t="s">
@@ -1792,21 +1792,21 @@
         <v>13</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14" t="s">
@@ -1821,21 +1821,21 @@
         <v>13</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="14" t="s">
@@ -1847,20 +1847,20 @@
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" ht="31.5">
       <c r="A28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="14"/>
@@ -1870,13 +1870,13 @@
     </row>
     <row r="29" spans="1:14" s="4" customFormat="1">
       <c r="A29" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="15"/>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1">
       <c r="A31" s="32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="33"/>
@@ -1943,10 +1943,10 @@
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1">
       <c r="A35" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2007,7 +2007,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
@@ -2016,81 +2016,81 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>56</v>
-      </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="C5" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="C7" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D9" s="15"/>
     </row>
@@ -2117,30 +2117,30 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2148,35 +2148,35 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3">
         <v>101</v>
@@ -2185,12 +2185,12 @@
         <v>101</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3">
         <v>102</v>
@@ -2199,7 +2199,7 @@
         <v>102</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2216,37 +2216,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.75" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="3" customWidth="1"/>
     <col min="3" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2276,65 +2276,65 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F2">
         <v>101</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F3">
         <v>102</v>
